--- a/output0.xlsx
+++ b/output0.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AllCases" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -966,7 +966,7 @@
         <v>1321</v>
       </c>
       <c r="T6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1055,7 +1055,7 @@
         <v>3116</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>1994</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>4005</v>
       </c>
       <c r="T9" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1322,7 +1322,7 @@
         <v>3054</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>2443</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>4134</v>
       </c>
       <c r="T12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>4423</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>2516</v>
       </c>
       <c r="T14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>6675</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1848,7 +1848,7 @@
         <v>5122</v>
       </c>
       <c r="T16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1935,7 +1935,7 @@
         <v>1829</v>
       </c>
       <c r="T17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>2887</v>
       </c>
       <c r="T18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -2109,7 +2109,7 @@
         <v>4876</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -2196,7 +2196,7 @@
         <v>1721</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>1882</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>OR1</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2370,7 +2370,7 @@
         <v>1533</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR2</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -2457,7 +2457,7 @@
         <v>2122</v>
       </c>
       <c r="T23" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -2544,7 +2544,7 @@
         <v>6122</v>
       </c>
       <c r="T24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -2631,7 +2631,7 @@
         <v>2010</v>
       </c>
       <c r="T25" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>OR3</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -2718,7 +2718,7 @@
         <v>3669</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2805,7 +2805,7 @@
         <v>4435</v>
       </c>
       <c r="T27" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2892,7 +2892,7 @@
         <v>6327</v>
       </c>
       <c r="T28" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>4371</v>
       </c>
       <c r="T29" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>7482</v>
       </c>
       <c r="T30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR1</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -3153,7 +3153,7 @@
         <v>1249</v>
       </c>
       <c r="T31" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -3240,7 +3240,7 @@
         <v>1667</v>
       </c>
       <c r="T32" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3458,11 +3458,7 @@
           <t>Ortho Surgeons</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>OR3</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>20</v>
       </c>
@@ -3500,9 +3496,7 @@
       <c r="S35" t="n">
         <v>3345</v>
       </c>
-      <c r="T35" t="n">
-        <v>16</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
         <v>0</v>
       </c>
@@ -3547,7 +3541,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>OR2</t>
+          <t>OR3</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -3588,7 +3582,7 @@
         <v>4221</v>
       </c>
       <c r="T36" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
